--- a/exceldata/chrome.xlsx
+++ b/exceldata/chrome.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Title</t>
   </si>
@@ -23,6 +23,15 @@
     <t>Hours</t>
   </si>
   <si>
+    <t>Python for Data Science, AI &amp; Development</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Meta Front-End Developer Professional Certificate</t>
   </si>
   <si>
@@ -32,10 +41,11 @@
     <t>168</t>
   </si>
   <si>
-    <t>Introduction to Web Development</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Must be valid email.
+example@yourdomain.com</t>
   </si>
 </sst>
 </file>
@@ -92,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true"/>
@@ -116,6 +126,12 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
@@ -127,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -164,10 +180,20 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="9">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/exceldata/chrome.xlsx
+++ b/exceldata/chrome.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Title</t>
   </si>
@@ -23,29 +23,35 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Python for Data Science, AI &amp; Development</t>
+    <t>Meta Front-End Developer Professional Certificate</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>IBM Full Stack Software Developer Professional Certificate</t>
   </si>
   <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Meta Front-End Developer Professional Certificate</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>168</t>
+    <t>160</t>
   </si>
   <si>
     <t>Error Message</t>
   </si>
   <si>
-    <t>Must be valid email.
+    <t>Work Email Address: Must be valid email.
 example@yourdomain.com</t>
+  </si>
+  <si>
+    <t>Last Name: This field is required.</t>
+  </si>
+  <si>
+    <t>First Name: This field is required.</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true"/>
@@ -126,6 +132,18 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
@@ -143,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -196,6 +214,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="15">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
